--- a/DiseñoETL-Lab3.xlsx
+++ b/DiseñoETL-Lab3.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fesar\Documents\Universidad\Septimo semestre\Inteligencia de Negocios\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fesar\git\laboratory-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4582BF7-75A4-4E0C-95B4-5310A99C0790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0C7260-EA90-48B5-B3CC-206D727EB338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantillaDiseñoETL" sheetId="1" r:id="rId1"/>
-    <sheet name="Ejemplo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -226,17 +225,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1289,27 +1288,27 @@
       <c r="A1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1396,11 +1395,11 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="4"/>
@@ -1518,18 +1517,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>